--- a/frequency-parser/information/frequencies.xlsx
+++ b/frequency-parser/information/frequencies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaa9106\Desktop\Pharmacy RAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawsonlin/Desktop/ColumbiaDBMI/Adelman/frequency-parser/information/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76476C30-82CC-479B-AC39-1E3F5CDCC58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CC9486-D3E7-EF44-A698-ADE958723179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22110" yWindow="3165" windowWidth="21600" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -581,7 +581,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -604,15 +604,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -927,20 +939,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E166"/>
+  <dimension ref="A1:E167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -951,8 +963,8 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3">
@@ -960,7 +972,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -969,7 +981,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -978,7 +990,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -987,7 +999,7 @@
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -997,7 +1009,7 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1007,7 +1019,7 @@
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1017,7 +1029,7 @@
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1027,7 +1039,7 @@
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1039,7 +1051,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1048,7 +1060,7 @@
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1057,7 +1069,7 @@
       </c>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -1068,7 +1080,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -1077,7 +1089,7 @@
       </c>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -1086,7 +1098,7 @@
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -1095,7 +1107,7 @@
       </c>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -1104,7 +1116,7 @@
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -1113,7 +1125,7 @@
       </c>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -1122,7 +1134,7 @@
       </c>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -1131,7 +1143,7 @@
       </c>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -1140,7 +1152,7 @@
       </c>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -1149,7 +1161,7 @@
       </c>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -1158,7 +1170,7 @@
       </c>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -1167,7 +1179,7 @@
       </c>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -1176,7 +1188,7 @@
       </c>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -1189,7 +1201,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -1201,7 +1213,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -1210,7 +1222,7 @@
       </c>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -1219,7 +1231,7 @@
       </c>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -1228,7 +1240,7 @@
       </c>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -1238,7 +1250,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -1247,7 +1259,7 @@
       </c>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -1256,7 +1268,7 @@
       </c>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -1265,7 +1277,7 @@
       </c>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -1274,7 +1286,7 @@
       </c>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -1283,7 +1295,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -1293,7 +1305,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -1303,7 +1315,7 @@
       </c>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -1313,7 +1325,7 @@
       </c>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
@@ -1323,7 +1335,7 @@
       </c>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
@@ -1332,7 +1344,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
@@ -1341,7 +1353,7 @@
       </c>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
@@ -1350,7 +1362,7 @@
       </c>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
@@ -1359,7 +1371,7 @@
       </c>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -1368,7 +1380,7 @@
       </c>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -1377,7 +1389,7 @@
       </c>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -1386,7 +1398,7 @@
       </c>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
@@ -1395,7 +1407,7 @@
       </c>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -1404,7 +1416,7 @@
       </c>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
@@ -1413,7 +1425,7 @@
       </c>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -1422,7 +1434,7 @@
       </c>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>51</v>
       </c>
@@ -1431,7 +1443,7 @@
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
@@ -1440,7 +1452,7 @@
       </c>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>53</v>
       </c>
@@ -1449,7 +1461,7 @@
       </c>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
@@ -1458,7 +1470,7 @@
       </c>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>55</v>
       </c>
@@ -1467,7 +1479,7 @@
       </c>
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
@@ -1477,7 +1489,7 @@
       </c>
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
@@ -1486,7 +1498,7 @@
       </c>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
@@ -1495,7 +1507,7 @@
       </c>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>59</v>
       </c>
@@ -1504,7 +1516,7 @@
       </c>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>60</v>
       </c>
@@ -1514,7 +1526,7 @@
       </c>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>61</v>
       </c>
@@ -1524,7 +1536,7 @@
       </c>
       <c r="C62" s="3"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>62</v>
       </c>
@@ -1534,7 +1546,7 @@
       </c>
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>63</v>
       </c>
@@ -1544,7 +1556,7 @@
       </c>
       <c r="C64" s="3"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>64</v>
       </c>
@@ -1553,7 +1565,7 @@
       </c>
       <c r="C65" s="3"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>65</v>
       </c>
@@ -1562,7 +1574,7 @@
       </c>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>66</v>
       </c>
@@ -1571,7 +1583,7 @@
       </c>
       <c r="C67" s="3"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>67</v>
       </c>
@@ -1580,7 +1592,7 @@
       </c>
       <c r="C68" s="3"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>68</v>
       </c>
@@ -1591,7 +1603,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>69</v>
       </c>
@@ -1600,7 +1612,7 @@
       </c>
       <c r="C70" s="3"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>70</v>
       </c>
@@ -1609,7 +1621,7 @@
       </c>
       <c r="C71" s="3"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>71</v>
       </c>
@@ -1618,7 +1630,7 @@
       </c>
       <c r="C72" s="3"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>72</v>
       </c>
@@ -1627,7 +1639,7 @@
       </c>
       <c r="C73" s="3"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>73</v>
       </c>
@@ -1636,7 +1648,7 @@
       </c>
       <c r="C74" s="3"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>74</v>
       </c>
@@ -1645,7 +1657,7 @@
       </c>
       <c r="C75" s="3"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>75</v>
       </c>
@@ -1655,7 +1667,7 @@
       </c>
       <c r="C76" s="3"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>76</v>
       </c>
@@ -1664,7 +1676,7 @@
       </c>
       <c r="C77" s="3"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>77</v>
       </c>
@@ -1673,7 +1685,7 @@
       </c>
       <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>78</v>
       </c>
@@ -1682,7 +1694,7 @@
       </c>
       <c r="C79" s="3"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>79</v>
       </c>
@@ -1691,7 +1703,7 @@
       </c>
       <c r="C80" s="3"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>80</v>
       </c>
@@ -1700,7 +1712,7 @@
       </c>
       <c r="C81" s="3"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>81</v>
       </c>
@@ -1709,7 +1721,7 @@
       </c>
       <c r="C82" s="3"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>82</v>
       </c>
@@ -1718,7 +1730,7 @@
       </c>
       <c r="C83" s="3"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>83</v>
       </c>
@@ -1728,7 +1740,7 @@
       </c>
       <c r="C84" s="3"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>84</v>
       </c>
@@ -1737,7 +1749,7 @@
       </c>
       <c r="C85" s="3"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>85</v>
       </c>
@@ -1746,7 +1758,7 @@
       </c>
       <c r="C86" s="3"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>86</v>
       </c>
@@ -1755,7 +1767,7 @@
       </c>
       <c r="C87" s="3"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>87</v>
       </c>
@@ -1764,7 +1776,7 @@
       </c>
       <c r="C88" s="3"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>88</v>
       </c>
@@ -1774,7 +1786,7 @@
       </c>
       <c r="C89" s="3"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>89</v>
       </c>
@@ -1784,7 +1796,7 @@
       </c>
       <c r="C90" s="3"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>90</v>
       </c>
@@ -1794,7 +1806,7 @@
       </c>
       <c r="C91" s="3"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>91</v>
       </c>
@@ -1803,7 +1815,7 @@
       </c>
       <c r="C92" s="3"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>92</v>
       </c>
@@ -1812,7 +1824,7 @@
       </c>
       <c r="C93" s="3"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>93</v>
       </c>
@@ -1822,7 +1834,7 @@
       </c>
       <c r="C94" s="3"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>94</v>
       </c>
@@ -1831,7 +1843,7 @@
       </c>
       <c r="C95" s="3"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>95</v>
       </c>
@@ -1840,7 +1852,7 @@
       </c>
       <c r="C96" s="3"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>96</v>
       </c>
@@ -1849,7 +1861,7 @@
       </c>
       <c r="C97" s="3"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>97</v>
       </c>
@@ -1858,7 +1870,7 @@
       </c>
       <c r="C98" s="3"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>98</v>
       </c>
@@ -1867,7 +1879,7 @@
       </c>
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>99</v>
       </c>
@@ -1877,7 +1889,7 @@
       </c>
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>100</v>
       </c>
@@ -1886,7 +1898,7 @@
       </c>
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>101</v>
       </c>
@@ -1895,7 +1907,7 @@
       </c>
       <c r="C102" s="3"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>102</v>
       </c>
@@ -1904,7 +1916,7 @@
       </c>
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>103</v>
       </c>
@@ -1913,7 +1925,7 @@
       </c>
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>104</v>
       </c>
@@ -1922,7 +1934,7 @@
       </c>
       <c r="C105" s="3"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>105</v>
       </c>
@@ -1931,7 +1943,7 @@
       </c>
       <c r="C106" s="3"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>106</v>
       </c>
@@ -1941,7 +1953,7 @@
       </c>
       <c r="C107" s="3"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>107</v>
       </c>
@@ -1951,7 +1963,7 @@
       </c>
       <c r="C108" s="3"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>108</v>
       </c>
@@ -1960,7 +1972,7 @@
       </c>
       <c r="C109" s="3"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>109</v>
       </c>
@@ -1969,7 +1981,7 @@
       </c>
       <c r="C110" s="3"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>110</v>
       </c>
@@ -1978,7 +1990,7 @@
       </c>
       <c r="C111" s="3"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>111</v>
       </c>
@@ -1987,7 +1999,7 @@
       </c>
       <c r="C112" s="3"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>112</v>
       </c>
@@ -1996,7 +2008,7 @@
       </c>
       <c r="C113" s="3"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>113</v>
       </c>
@@ -2006,7 +2018,7 @@
       </c>
       <c r="C114" s="3"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>114</v>
       </c>
@@ -2015,7 +2027,7 @@
       </c>
       <c r="C115" s="3"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>115</v>
       </c>
@@ -2024,7 +2036,7 @@
       </c>
       <c r="C116" s="3"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>116</v>
       </c>
@@ -2033,7 +2045,7 @@
       </c>
       <c r="C117" s="3"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>117</v>
       </c>
@@ -2042,7 +2054,7 @@
       </c>
       <c r="C118" s="3"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>118</v>
       </c>
@@ -2051,7 +2063,7 @@
       </c>
       <c r="C119" s="3"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>119</v>
       </c>
@@ -2060,7 +2072,7 @@
       </c>
       <c r="C120" s="3"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>120</v>
       </c>
@@ -2069,7 +2081,7 @@
       </c>
       <c r="C121" s="3"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>121</v>
       </c>
@@ -2078,7 +2090,7 @@
       </c>
       <c r="C122" s="3"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>122</v>
       </c>
@@ -2087,7 +2099,7 @@
       </c>
       <c r="C123" s="3"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>123</v>
       </c>
@@ -2096,7 +2108,7 @@
       </c>
       <c r="C124" s="3"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>124</v>
       </c>
@@ -2105,7 +2117,7 @@
       </c>
       <c r="C125" s="3"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>125</v>
       </c>
@@ -2114,7 +2126,7 @@
       </c>
       <c r="C126" s="3"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>126</v>
       </c>
@@ -2123,7 +2135,7 @@
       </c>
       <c r="C127" s="3"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>127</v>
       </c>
@@ -2132,7 +2144,7 @@
       </c>
       <c r="C128" s="3"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>128</v>
       </c>
@@ -2141,7 +2153,7 @@
       </c>
       <c r="C129" s="3"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>129</v>
       </c>
@@ -2150,7 +2162,7 @@
       </c>
       <c r="C130" s="3"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>130</v>
       </c>
@@ -2159,7 +2171,7 @@
       </c>
       <c r="C131" s="3"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>131</v>
       </c>
@@ -2168,7 +2180,7 @@
       </c>
       <c r="C132" s="3"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>132</v>
       </c>
@@ -2178,7 +2190,7 @@
       </c>
       <c r="C133" s="3"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>133</v>
       </c>
@@ -2187,7 +2199,7 @@
       </c>
       <c r="C134" s="3"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>134</v>
       </c>
@@ -2196,7 +2208,7 @@
       </c>
       <c r="C135" s="3"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>135</v>
       </c>
@@ -2205,7 +2217,7 @@
       </c>
       <c r="C136" s="3"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>136</v>
       </c>
@@ -2214,7 +2226,7 @@
       </c>
       <c r="C137" s="3"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>137</v>
       </c>
@@ -2223,7 +2235,7 @@
       </c>
       <c r="C138" s="3"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>138</v>
       </c>
@@ -2232,7 +2244,7 @@
       </c>
       <c r="C139" s="3"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>139</v>
       </c>
@@ -2241,7 +2253,7 @@
       </c>
       <c r="C140" s="3"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>140</v>
       </c>
@@ -2251,7 +2263,7 @@
       </c>
       <c r="C141" s="3"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>141</v>
       </c>
@@ -2261,7 +2273,7 @@
       </c>
       <c r="C142" s="3"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>142</v>
       </c>
@@ -2271,7 +2283,7 @@
       </c>
       <c r="C143" s="3"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>143</v>
       </c>
@@ -2281,7 +2293,7 @@
       </c>
       <c r="C144" s="3"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>144</v>
       </c>
@@ -2291,7 +2303,7 @@
       </c>
       <c r="C145" s="3"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>145</v>
       </c>
@@ -2301,7 +2313,7 @@
       </c>
       <c r="C146" s="3"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>146</v>
       </c>
@@ -2311,7 +2323,7 @@
       </c>
       <c r="C147" s="3"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>147</v>
       </c>
@@ -2321,7 +2333,7 @@
       </c>
       <c r="C148" s="3"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>148</v>
       </c>
@@ -2331,7 +2343,7 @@
       </c>
       <c r="C149" s="3"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>149</v>
       </c>
@@ -2341,7 +2353,7 @@
       </c>
       <c r="C150" s="3"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>150</v>
       </c>
@@ -2351,7 +2363,7 @@
       </c>
       <c r="C151" s="3"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>151</v>
       </c>
@@ -2360,7 +2372,7 @@
       </c>
       <c r="C152" s="3"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>152</v>
       </c>
@@ -2369,7 +2381,7 @@
       </c>
       <c r="C153" s="3"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>153</v>
       </c>
@@ -2378,7 +2390,7 @@
       </c>
       <c r="C154" s="3"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>154</v>
       </c>
@@ -2388,7 +2400,7 @@
       </c>
       <c r="C155" s="3"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>155</v>
       </c>
@@ -2398,7 +2410,7 @@
       </c>
       <c r="C156" s="3"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>156</v>
       </c>
@@ -2408,7 +2420,7 @@
       </c>
       <c r="C157" s="3"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>157</v>
       </c>
@@ -2418,7 +2430,7 @@
       </c>
       <c r="C158" s="3"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>158</v>
       </c>
@@ -2428,7 +2440,7 @@
       </c>
       <c r="C159" s="3"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>159</v>
       </c>
@@ -2438,7 +2450,7 @@
       </c>
       <c r="C160" s="3"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>160</v>
       </c>
@@ -2448,7 +2460,7 @@
       </c>
       <c r="C161" s="3"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>161</v>
       </c>
@@ -2458,7 +2470,7 @@
       </c>
       <c r="C162" s="3"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>162</v>
       </c>
@@ -2467,7 +2479,7 @@
       </c>
       <c r="C163" s="3"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>163</v>
       </c>
@@ -2477,7 +2489,7 @@
       </c>
       <c r="C164" s="3"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>164</v>
       </c>
@@ -2487,7 +2499,7 @@
       </c>
       <c r="C165" s="3"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>165</v>
       </c>
@@ -2496,6 +2508,9 @@
         <v>33.6</v>
       </c>
       <c r="C166" s="3"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
